--- a/Prototypes/Barley/Observations/MCPD11_12Water.xlsx
+++ b/Prototypes/Barley/Observations/MCPD11_12Water.xlsx
@@ -59,34 +59,34 @@
     <t>ProfileWater</t>
   </si>
   <si>
-    <t>MCPD11_12_Booma_SD1</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>MCPD11_12_Dash_SD1</t>
+    <t>MCPD11_12CultBoomaSD1</t>
   </si>
   <si>
-    <t>MCPD11_12_Omaka_SD1</t>
+    <t>MCPD11_12CultDashSD1</t>
   </si>
   <si>
-    <t>MCPD11_12_Booma_SD2</t>
+    <t>MCPD11_12CultOmakaSD1</t>
   </si>
   <si>
-    <t>MCPD11_12_Dash_SD2</t>
+    <t>MCPD11_12CultBoomaSD2</t>
   </si>
   <si>
-    <t>MCPD11_12_Omaka_SD2</t>
+    <t>MCPD11_12CultDashSD2</t>
   </si>
   <si>
-    <t>MCPD11_12_Booma_SD3</t>
+    <t>MCPD11_12CultOmakaSD2</t>
   </si>
   <si>
-    <t>MCPD11_12_Dash_SD3</t>
+    <t>MCPD11_12CultBoomaSD3</t>
   </si>
   <si>
-    <t>MCPD11_12_Omaka_SD3</t>
+    <t>MCPD11_12CultDashSD3</t>
+  </si>
+  <si>
+    <t>MCPD11_12CultOmakaSD3</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection sqref="A1:K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>40793</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>40807</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>40829</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>40844</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>40857</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>40871</v>
@@ -664,42 +664,42 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>40885</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>40898</v>
@@ -734,42 +734,42 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>40913</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>40925</v>
@@ -804,107 +804,107 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>40941</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>40948</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>40983</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1125,31 +1125,31 @@
         <v>40885</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1195,31 +1195,31 @@
         <v>40913</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1265,31 +1265,31 @@
         <v>40941</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1300,31 +1300,31 @@
         <v>40948</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1335,31 +1335,31 @@
         <v>40983</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1580,31 +1580,31 @@
         <v>40885</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1650,31 +1650,31 @@
         <v>40913</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1720,31 +1720,31 @@
         <v>40941</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1755,31 +1755,31 @@
         <v>40948</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1790,31 +1790,31 @@
         <v>40983</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1825,31 +1825,31 @@
         <v>40793</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1860,31 +1860,31 @@
         <v>40807</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2070,31 +2070,31 @@
         <v>40898</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2140,31 +2140,31 @@
         <v>40925</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2175,31 +2175,31 @@
         <v>40941</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2245,31 +2245,31 @@
         <v>40983</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2280,31 +2280,31 @@
         <v>40793</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2315,31 +2315,31 @@
         <v>40807</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2525,31 +2525,31 @@
         <v>40898</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2595,31 +2595,31 @@
         <v>40925</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2630,31 +2630,31 @@
         <v>40941</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2700,31 +2700,31 @@
         <v>40983</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2735,31 +2735,31 @@
         <v>40793</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -2770,31 +2770,31 @@
         <v>40807</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2980,31 +2980,31 @@
         <v>40898</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3050,31 +3050,31 @@
         <v>40925</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3085,31 +3085,31 @@
         <v>40941</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3155,31 +3155,31 @@
         <v>40983</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3190,31 +3190,31 @@
         <v>40793</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3225,31 +3225,31 @@
         <v>40807</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3260,31 +3260,31 @@
         <v>40829</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3295,31 +3295,31 @@
         <v>40844</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3330,31 +3330,31 @@
         <v>40857</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -3365,31 +3365,31 @@
         <v>40871</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -3575,31 +3575,31 @@
         <v>40948</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3645,31 +3645,31 @@
         <v>40793</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -3680,31 +3680,31 @@
         <v>40807</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -3715,31 +3715,31 @@
         <v>40829</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -3750,31 +3750,31 @@
         <v>40844</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -3785,31 +3785,31 @@
         <v>40857</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -3820,31 +3820,31 @@
         <v>40871</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4030,31 +4030,31 @@
         <v>40948</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4100,31 +4100,31 @@
         <v>40793</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4135,31 +4135,31 @@
         <v>40807</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4170,31 +4170,31 @@
         <v>40829</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4205,31 +4205,31 @@
         <v>40844</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -4240,31 +4240,31 @@
         <v>40857</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4275,31 +4275,31 @@
         <v>40871</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -4485,31 +4485,31 @@
         <v>40948</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
